--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16968" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,14 +82,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,48 +540,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,97 +594,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1046,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1180,11 +1173,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
+      <c r="E4">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>整体计划</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>当前p747</t>
+  </si>
+  <si>
+    <t>当前p773</t>
   </si>
 </sst>
 </file>
@@ -235,12 +241,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -543,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,16 +573,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,10 +594,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,28 +618,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -630,22 +648,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,19 +666,19 @@
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,17 +687,23 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +712,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -748,6 +772,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00A60000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1046,7 +1075,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1173,13 +1202,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4">
         <v>21</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18">

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>整体计划</t>
   </si>
@@ -77,11 +90,14 @@
   <si>
     <t>当前p773</t>
   </si>
+  <si>
+    <t>当前p808</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -97,55 +113,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +170,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,7 +230,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,49 +278,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,121 +416,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,21 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,6 +501,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,148 +574,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -722,52 +738,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1075,10 +1091,10 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
@@ -1202,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1221,6 +1237,9 @@
       </c>
       <c r="J4" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1526,7 +1545,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1543,7 +1562,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
   <si>
     <t>整体计划</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>当前p773</t>
+  </si>
+  <si>
+    <t>p798</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1078,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1202,7 +1205,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1221,6 +1224,12 @@
       </c>
       <c r="J4" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18">

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
   <si>
     <t>整体计划</t>
   </si>
@@ -56,6 +43,9 @@
   </si>
   <si>
     <t>周天</t>
+  </si>
+  <si>
+    <t>一周总结</t>
   </si>
   <si>
     <t>计划20页</t>
@@ -69,7 +59,7 @@
   <si>
     <t xml:space="preserve">每周学习计划
 VulkanSpecific.pdf学习:
-周一到周四每天20页，周六周天每天60页，一周200页，期间可以动态调整，只要保证每个周的进度满足即可。
+周一到周四每天20页，周六周天每天60页（上下午各25页，晚上10页，分批学防止疲惫），一周200页，期间可以动态调整，只要保证每个周的进度满足即可，未完成说明情况。
 </t>
   </si>
   <si>
@@ -85,19 +75,28 @@
     <t>-</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成164页，由于周六休息一天故没有完成预定计划</t>
+  </si>
+  <si>
     <t>当前p747</t>
   </si>
   <si>
     <t>当前p773</t>
   </si>
   <si>
+    <t>p798</t>
+  </si>
+  <si>
     <t>当前p808</t>
+  </si>
+  <si>
+    <t>p880</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -113,6 +112,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -129,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -170,21 +205,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -230,28 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +277,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,24 +343,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,18 +391,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,36 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,24 +427,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,12 +446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +468,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,21 +515,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,152 +573,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,56 +733,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1088,15 +1090,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="S11" sqref="S11:V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,92 +1135,108 @@
         <v>8</v>
       </c>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>16</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1230,225 +1248,282 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <v>25</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>72</v>
+      </c>
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>
@@ -1501,7 +1576,7 @@
       <c r="C22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="33">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -1529,6 +1604,12 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A3:C22"/>
+    <mergeCell ref="S1:V2"/>
+    <mergeCell ref="S3:V4"/>
+    <mergeCell ref="S5:V6"/>
+    <mergeCell ref="S7:V8"/>
+    <mergeCell ref="S9:V10"/>
+    <mergeCell ref="S11:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1545,7 +1626,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1562,7 +1643,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>整体计划</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>p880</t>
+  </si>
+  <si>
+    <t>p908</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,9 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:V12"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1135,12 +1135,12 @@
         <v>8</v>
       </c>
       <c r="R1" s="1"/>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1"/>
@@ -1175,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
@@ -1229,12 +1229,12 @@
       <c r="R3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="2"/>
@@ -1280,10 +1280,10 @@
       <c r="R4" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="2"/>
@@ -1330,20 +1330,26 @@
       <c r="R5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="2"/>
@@ -1390,20 +1396,20 @@
       <c r="R7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2"/>
@@ -1450,20 +1456,20 @@
       <c r="R9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="2"/>
@@ -1510,20 +1516,20 @@
       <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>整体计划</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>p908</t>
+  </si>
+  <si>
+    <t>当前p940</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1345,6 +1348,12 @@
       </c>
       <c r="F6" t="s">
         <v>24</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>整体计划</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>当前p940</t>
+  </si>
+  <si>
+    <t>p961</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1354,6 +1357,12 @@
       </c>
       <c r="H6" t="s">
         <v>25</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>整体计划</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>p961</t>
+  </si>
+  <si>
+    <t>p998</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1363,6 +1366,12 @@
       </c>
       <c r="J6" t="s">
         <v>26</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>整体计划</t>
   </si>
@@ -93,6 +93,9 @@
     <t>p880</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成183页，由于周六休息一天故没有完成预定计划</t>
+  </si>
+  <si>
     <t>p908</t>
   </si>
   <si>
@@ -103,6 +106,12 @@
   </si>
   <si>
     <t>p998</t>
+  </si>
+  <si>
+    <t>p1000</t>
+  </si>
+  <si>
+    <t>p1063</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1111,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="O2" sqref="O2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1339,7 +1348,9 @@
       <c r="R5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1353,25 +1364,43 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1639,10 +1668,10 @@
     <mergeCell ref="A3:C22"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
-    <mergeCell ref="S5:V6"/>
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="S9:V10"/>
     <mergeCell ref="S11:V12"/>
+    <mergeCell ref="S5:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>整体计划</t>
   </si>
@@ -113,11 +126,14 @@
   <si>
     <t>p1063</t>
   </si>
+  <si>
+    <t>p1083</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -133,34 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,6 +165,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -186,41 +213,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,7 +266,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,49 +314,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,121 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,21 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,6 +537,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,148 +610,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -758,52 +774,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1111,10 +1127,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1462,6 +1478,12 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1688,7 +1710,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1705,7 +1727,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>整体计划</t>
   </si>
@@ -129,11 +116,14 @@
   <si>
     <t>p1083</t>
   </si>
+  <si>
+    <t>当前p1113</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -149,6 +139,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -165,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -206,21 +232,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -266,28 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,13 +304,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,24 +370,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,18 +418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,36 +430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,24 +454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,12 +473,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +495,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,21 +542,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,148 +600,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,52 +764,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1127,10 +1117,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1483,6 +1473,12 @@
       </c>
       <c r="F8" t="s">
         <v>31</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1710,7 +1706,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1727,7 +1723,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>整体计划</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>当前p1113</t>
+  </si>
+  <si>
+    <t>p1145</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1479,6 +1482,12 @@
       </c>
       <c r="H8" t="s">
         <v>32</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
   <si>
     <t>整体计划</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>p1145</t>
+  </si>
+  <si>
+    <t>p1192</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1488,6 +1491,12 @@
       </c>
       <c r="J8" t="s">
         <v>33</v>
+      </c>
+      <c r="K8">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
   <si>
     <t>整体计划</t>
   </si>
@@ -125,11 +138,14 @@
   <si>
     <t>p1192</t>
   </si>
+  <si>
+    <t>p1213</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -145,34 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -189,6 +177,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -198,41 +225,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +278,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,49 +326,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,121 +464,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,21 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,6 +549,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,148 +622,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -770,52 +786,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1123,10 +1139,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1497,6 +1513,12 @@
       </c>
       <c r="L8" t="s">
         <v>34</v>
+      </c>
+      <c r="M8">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1724,7 +1746,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1741,7 +1763,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>整体计划</t>
   </si>
@@ -141,11 +128,14 @@
   <si>
     <t>p1213</t>
   </si>
+  <si>
+    <t>p1242</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -161,6 +151,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -177,6 +195,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -218,21 +244,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,28 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +316,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,24 +382,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,18 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,36 +442,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,24 +466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,12 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +507,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,21 +554,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,148 +612,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -786,52 +776,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1139,10 +1129,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="S7" sqref="S7:V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1519,6 +1509,12 @@
       </c>
       <c r="N8" t="s">
         <v>35</v>
+      </c>
+      <c r="O8">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1746,7 +1742,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1763,7 +1759,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
   <si>
     <t>整体计划</t>
   </si>
@@ -114,6 +114,9 @@
     <t>p1063</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成234页，周六周天并未完全按照计划来，后续慢慢改进周六周天的学习模式</t>
+  </si>
+  <si>
     <t>p1083</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
   </si>
   <si>
     <t>p1242</t>
+  </si>
+  <si>
+    <t>p1297</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1476,9 @@
       <c r="R7" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1484,37 +1492,43 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I8">
         <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8">
         <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O8">
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="Q8">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>38</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1722,10 +1736,10 @@
     <mergeCell ref="A3:C22"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
-    <mergeCell ref="S7:V8"/>
     <mergeCell ref="S9:V10"/>
     <mergeCell ref="S11:V12"/>
     <mergeCell ref="S5:V6"/>
+    <mergeCell ref="S7:V8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>整体计划</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>p1297</t>
+  </si>
+  <si>
+    <t>p1317</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1138,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:V8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1590,6 +1593,12 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>整体计划</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>p1317</t>
+  </si>
+  <si>
+    <t>p1352</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1141,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1598,6 +1601,12 @@
       </c>
       <c r="F10" t="s">
         <v>39</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>整体计划</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>p1352</t>
+  </si>
+  <si>
+    <t>p1374</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1144,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1607,6 +1610,12 @@
       </c>
       <c r="H10" t="s">
         <v>40</v>
+      </c>
+      <c r="I10">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>整体计划</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>p1374</t>
+  </si>
+  <si>
+    <t>p1396</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1616,6 +1619,12 @@
       </c>
       <c r="J10" t="s">
         <v>41</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>整体计划</t>
   </si>
@@ -149,11 +162,14 @@
   <si>
     <t>p1396</t>
   </si>
+  <si>
+    <t>p1414</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -169,34 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -213,6 +201,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -222,41 +249,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,7 +302,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,49 +350,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,121 +488,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,21 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,6 +573,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,148 +646,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,52 +810,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1146,11 +1162,11 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1625,6 +1641,12 @@
       </c>
       <c r="L10" t="s">
         <v>42</v>
+      </c>
+      <c r="M10">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1792,7 +1814,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1809,7 +1831,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>整体计划</t>
   </si>
@@ -165,11 +152,14 @@
   <si>
     <t>p1414</t>
   </si>
+  <si>
+    <t>p1473</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -185,6 +175,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -201,6 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -242,21 +268,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -302,28 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,13 +340,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,24 +406,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,18 +454,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,36 +466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,24 +490,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -513,12 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +531,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,21 +578,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,148 +636,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -810,52 +800,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1163,10 +1153,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:V8"/>
+      <selection activeCell="S9" sqref="S9:V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1647,6 +1637,12 @@
       </c>
       <c r="N10" t="s">
         <v>43</v>
+      </c>
+      <c r="O10">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1814,7 +1810,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1831,7 +1827,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>整体计划</t>
   </si>
@@ -138,6 +138,9 @@
     <t>p1297</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成236页</t>
+  </si>
+  <si>
     <t>p1317</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>p1473</t>
+  </si>
+  <si>
+    <t>p1533</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1159,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9:V10"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1598,7 +1604,9 @@
       <c r="R9" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1612,37 +1620,43 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10">
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O10">
         <v>59</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>46</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -1790,10 +1804,10 @@
     <mergeCell ref="A3:C22"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
-    <mergeCell ref="S9:V10"/>
     <mergeCell ref="S11:V12"/>
     <mergeCell ref="S5:V6"/>
     <mergeCell ref="S7:V8"/>
+    <mergeCell ref="S9:V10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
   <si>
     <t>整体计划</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>p1533</t>
+  </si>
+  <si>
+    <t>p1562</t>
   </si>
 </sst>
 </file>
@@ -1718,6 +1721,12 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>整体计划</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>p1562</t>
+  </si>
+  <si>
+    <t>p1584</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1165,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1726,6 +1729,12 @@
       </c>
       <c r="H12" t="s">
         <v>47</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>整体计划</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>p1584</t>
+  </si>
+  <si>
+    <t>p1622</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1168,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1735,6 +1738,12 @@
       </c>
       <c r="J12" t="s">
         <v>48</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>49</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>整体计划</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>p1622</t>
+  </si>
+  <si>
+    <t>p1657</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1727,23 +1730,29 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
       <c r="G12">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>整体计划</t>
   </si>
@@ -173,11 +186,14 @@
   <si>
     <t>p1657</t>
   </si>
+  <si>
+    <t>p1685</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -190,34 +206,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,14 +222,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,6 +261,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,7 +326,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,49 +374,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,121 +512,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,21 +565,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,6 +597,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,148 +670,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -818,52 +834,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1171,10 +1187,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1753,6 +1769,12 @@
       </c>
       <c r="L12" t="s">
         <v>50</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1860,7 +1882,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1877,7 +1899,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>整体计划</t>
   </si>
@@ -175,6 +162,9 @@
     <t>p1533</t>
   </si>
   <si>
+    <t>7.29-8.4</t>
+  </si>
+  <si>
     <t>p1562</t>
   </si>
   <si>
@@ -188,12 +178,15 @@
   </si>
   <si>
     <t>p1685</t>
+  </si>
+  <si>
+    <t>p1744</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -206,6 +199,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +243,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,21 +290,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,28 +340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,13 +367,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,24 +433,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,18 +481,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,36 +493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -506,24 +517,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -537,12 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +558,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -597,21 +605,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,148 +663,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -834,52 +827,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1187,10 +1180,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1695,7 +1688,9 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
@@ -1750,31 +1745,37 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12">
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12">
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="O12">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s">
+        <v>53</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1882,7 +1883,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1899,7 +1900,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
   <si>
     <t>整体计划</t>
   </si>
@@ -165,6 +165,9 @@
     <t>7.29-8.4</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成211页</t>
+  </si>
+  <si>
     <t>p1562</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
   </si>
   <si>
     <t>p1744</t>
+  </si>
+  <si>
+    <t>p1771</t>
   </si>
 </sst>
 </file>
@@ -808,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1180,7 +1189,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1340,7 +1349,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -1731,7 +1740,9 @@
       <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1745,72 +1756,240 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12">
         <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>35</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12">
         <v>28</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12">
         <v>59</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:22">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4"/>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4"/>
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4"/>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1833,7 +2012,7 @@
       <c r="C22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="39">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -1859,14 +2038,20 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A3:C22"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
-    <mergeCell ref="S11:V12"/>
     <mergeCell ref="S5:V6"/>
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="S9:V10"/>
+    <mergeCell ref="S11:V12"/>
+    <mergeCell ref="S13:V14"/>
+    <mergeCell ref="S15:V16"/>
+    <mergeCell ref="S17:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
   <si>
     <t>整体计划</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>p1771</t>
+  </si>
+  <si>
+    <t>p1806</t>
   </si>
 </sst>
 </file>
@@ -814,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,9 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1189,7 +1189,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1349,7 +1349,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -1803,7 +1803,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>15</v>
       </c>
@@ -1846,32 +1846,38 @@
       <c r="R13" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="1"/>
       <c r="E14">
         <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="1"/>
       <c r="E15" t="s">
         <v>15</v>
       </c>
@@ -1914,26 +1920,26 @@
       <c r="R15" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="D16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="1"/>
       <c r="E17" t="s">
         <v>15</v>
       </c>
@@ -1976,20 +1982,20 @@
       <c r="R17" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -195,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -208,34 +221,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,14 +237,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,6 +276,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,7 +341,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,49 +389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,121 +527,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,21 +580,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,6 +612,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,148 +685,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,52 +849,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1189,10 +1202,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1863,7 +1876,7 @@
         <v>55</v>
       </c>
       <c r="G14">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
         <v>56</v>
@@ -2074,7 +2087,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2091,7 +2104,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
   <si>
     <t>整体计划</t>
   </si>
@@ -204,11 +191,14 @@
   <si>
     <t>p1806</t>
   </si>
+  <si>
+    <t>p1858</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -221,6 +211,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +255,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,21 +302,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,28 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,13 +379,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,24 +445,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,18 +493,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -473,36 +505,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -521,24 +529,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,12 +548,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +570,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,21 +617,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,148 +675,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -849,52 +839,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1202,10 +1192,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1880,6 +1870,12 @@
       </c>
       <c r="H14" t="s">
         <v>56</v>
+      </c>
+      <c r="I14">
+        <v>52</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2087,7 +2083,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2104,7 +2100,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
   <si>
     <t>整体计划</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>p1858</t>
+  </si>
+  <si>
+    <t>p2005</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1195,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1876,6 +1879,12 @@
       </c>
       <c r="J14" t="s">
         <v>57</v>
+      </c>
+      <c r="K14">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>整体计划</t>
   </si>
@@ -197,11 +210,14 @@
   <si>
     <t>p2005</t>
   </si>
+  <si>
+    <t>p2207</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -214,34 +230,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,14 +246,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +285,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,7 +350,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,49 +398,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,121 +536,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,21 +589,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,6 +621,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,148 +694,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,52 +858,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1195,10 +1211,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1885,6 +1901,12 @@
       </c>
       <c r="L14" t="s">
         <v>58</v>
+      </c>
+      <c r="M14">
+        <v>202</v>
+      </c>
+      <c r="N14" t="s">
+        <v>59</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2092,7 +2114,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2109,7 +2131,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
   <si>
     <t>整体计划</t>
   </si>
@@ -199,6 +186,9 @@
     <t>p1744</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成838页</t>
+  </si>
+  <si>
     <t>p1771</t>
   </si>
   <si>
@@ -212,12 +202,15 @@
   </si>
   <si>
     <t>p2207</t>
+  </si>
+  <si>
+    <t>p2582</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -230,6 +223,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,6 +267,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,21 +314,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,28 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,13 +391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,24 +457,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -458,18 +505,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,36 +517,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,24 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,12 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +582,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,21 +629,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,148 +687,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -858,52 +851,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1211,10 +1204,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="S15" sqref="S15:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1868,7 +1861,9 @@
       <c r="R13" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1882,31 +1877,43 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14">
         <v>52</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14">
         <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M14">
         <v>202</v>
       </c>
       <c r="N14" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>375</v>
+      </c>
+      <c r="R14" t="s">
+        <v>61</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2095,9 +2102,9 @@
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="S9:V10"/>
     <mergeCell ref="S11:V12"/>
-    <mergeCell ref="S13:V14"/>
     <mergeCell ref="S15:V16"/>
     <mergeCell ref="S17:V18"/>
+    <mergeCell ref="S13:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2114,7 +2121,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2131,7 +2138,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>整体计划</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>p2582</t>
+  </si>
+  <si>
+    <t>p2604</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1207,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15:V16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1977,6 +1980,12 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
   <si>
     <t>整体计划</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>p2604</t>
+  </si>
+  <si>
+    <t>p2625</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1210,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1985,6 +1988,12 @@
       </c>
       <c r="F16" t="s">
         <v>62</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
   <si>
     <t>整体计划</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>p2625</t>
+  </si>
+  <si>
+    <t>p2650</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1213,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1994,6 +1997,12 @@
       </c>
       <c r="H16" t="s">
         <v>63</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
   <si>
     <t>整体计划</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>p2650</t>
+  </si>
+  <si>
+    <t>p2670</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1216,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2003,6 +2006,12 @@
       </c>
       <c r="J16" t="s">
         <v>64</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>整体计划</t>
   </si>
@@ -218,11 +231,14 @@
   <si>
     <t>p2670</t>
   </si>
+  <si>
+    <t>p2678</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -235,34 +251,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,14 +267,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,6 +306,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,7 +371,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,49 +419,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,121 +557,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,21 +610,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,6 +642,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,148 +715,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,52 +879,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1215,11 +1231,11 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2012,6 +2028,12 @@
       </c>
       <c r="L16" t="s">
         <v>65</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2157,7 +2179,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2174,7 +2196,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
   <si>
     <t>整体计划</t>
   </si>
@@ -220,6 +207,9 @@
     <t>p2582</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成200页</t>
+  </si>
+  <si>
     <t>p2604</t>
   </si>
   <si>
@@ -233,12 +223,18 @@
   </si>
   <si>
     <t>p2678</t>
+  </si>
+  <si>
+    <t>p2719</t>
+  </si>
+  <si>
+    <t>p2782</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -251,6 +247,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,6 +291,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,21 +338,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,28 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,13 +415,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,24 +481,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,18 +529,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,36 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,24 +565,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,12 +584,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +606,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,21 +653,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,148 +711,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -879,52 +875,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1232,10 +1228,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="S15" sqref="S15:V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1995,7 +1991,9 @@
       <c r="R15" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2009,31 +2007,43 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16">
         <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I16">
         <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16">
         <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M16">
         <v>8</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="O16">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16">
+        <v>200</v>
+      </c>
+      <c r="R16" t="s">
+        <v>69</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2160,9 +2170,9 @@
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="S9:V10"/>
     <mergeCell ref="S11:V12"/>
-    <mergeCell ref="S15:V16"/>
     <mergeCell ref="S17:V18"/>
     <mergeCell ref="S13:V14"/>
+    <mergeCell ref="S15:V16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2179,7 +2189,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2196,7 +2206,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -234,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -247,34 +260,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,14 +276,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +315,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,7 +380,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,49 +428,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,121 +566,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,21 +619,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -653,6 +651,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,148 +724,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,52 +888,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1227,11 +1240,11 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15:V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2040,7 +2053,7 @@
         <v>68</v>
       </c>
       <c r="Q16">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="R16" t="s">
         <v>69</v>
@@ -2107,6 +2120,9 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
+      <c r="E18">
+        <v>0</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -2189,7 +2205,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2206,7 +2222,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
     <t>整体计划</t>
   </si>
@@ -243,11 +230,14 @@
   <si>
     <t>p2782</t>
   </si>
+  <si>
+    <t>p2823</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -260,6 +250,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,6 +294,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,21 +341,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,28 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,13 +418,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,24 +484,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,18 +532,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -512,36 +544,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -560,24 +568,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,12 +587,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,6 +609,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,21 +656,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,148 +714,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -888,52 +878,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1241,10 +1231,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2122,6 +2112,12 @@
       <c r="D18" s="1"/>
       <c r="E18">
         <v>0</v>
+      </c>
+      <c r="G18">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>70</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2205,7 +2201,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2222,7 +2218,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
   <si>
     <t>整体计划</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>p2823</t>
+  </si>
+  <si>
+    <t>p2863</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1234,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2118,6 +2121,12 @@
       </c>
       <c r="H18" t="s">
         <v>70</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="73">
   <si>
     <t>整体计划</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>p2863</t>
+  </si>
+  <si>
+    <t>p2905</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1237,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2127,6 +2130,12 @@
       </c>
       <c r="J18" t="s">
         <v>71</v>
+      </c>
+      <c r="K18">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
   <si>
     <t>整体计划</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>p2905</t>
+  </si>
+  <si>
+    <t>p2981</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1240,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2136,6 +2139,12 @@
       </c>
       <c r="L18" t="s">
         <v>72</v>
+      </c>
+      <c r="M18">
+        <v>76</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
   <si>
     <t>整体计划</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>p2981</t>
+  </si>
+  <si>
+    <t>p2995</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2145,6 +2148,12 @@
       </c>
       <c r="N18" t="s">
         <v>73</v>
+      </c>
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18" t="s">
+        <v>74</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
   <si>
     <t>整体计划</t>
   </si>
@@ -231,6 +231,9 @@
     <t>p2782</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成270页</t>
+  </si>
+  <si>
     <t>p2823</t>
   </si>
   <si>
@@ -244,6 +247,9 @@
   </si>
   <si>
     <t>p2995</t>
+  </si>
+  <si>
+    <t>p3052</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1249,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2112,7 +2118,9 @@
       <c r="R17" t="s">
         <v>16</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2129,31 +2137,37 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18">
         <v>40</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K18">
         <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M18">
         <v>76</v>
       </c>
       <c r="N18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O18">
         <v>14</v>
       </c>
       <c r="P18" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="Q18">
+        <v>57</v>
+      </c>
+      <c r="R18" t="s">
+        <v>76</v>
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -2218,9 +2232,9 @@
     <mergeCell ref="S7:V8"/>
     <mergeCell ref="S9:V10"/>
     <mergeCell ref="S11:V12"/>
-    <mergeCell ref="S17:V18"/>
     <mergeCell ref="S13:V14"/>
     <mergeCell ref="S15:V16"/>
+    <mergeCell ref="S17:V18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
   <si>
     <t>整体计划</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>p3052</t>
+  </si>
+  <si>
+    <t>p3091</t>
   </si>
 </sst>
 </file>
@@ -877,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1249,7 +1255,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1409,7 +1415,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2174,28 +2180,138 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:22">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:22">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:22">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>16</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:22">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="43">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2224,6 +2340,8 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A3:C22"/>
     <mergeCell ref="S1:V2"/>
@@ -2235,6 +2353,8 @@
     <mergeCell ref="S13:V14"/>
     <mergeCell ref="S15:V16"/>
     <mergeCell ref="S17:V18"/>
+    <mergeCell ref="S19:V20"/>
+    <mergeCell ref="S21:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
   <si>
     <t>整体计划</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>p3091</t>
+  </si>
+  <si>
+    <t>p3126</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,9 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1255,7 +1255,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1415,7 +1415,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2184,7 +2184,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="1"/>
       <c r="E19" t="s">
         <v>15</v>
       </c>
@@ -2227,32 +2227,38 @@
       <c r="R19" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="1"/>
       <c r="E20">
         <v>39</v>
       </c>
       <c r="F20" t="s">
         <v>77</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="G20">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="1"/>
       <c r="E21" t="s">
         <v>15</v>
       </c>
@@ -2295,20 +2301,20 @@
       <c r="R21" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="D22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="43">

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t>整体计划</t>
   </si>
@@ -257,11 +270,14 @@
   <si>
     <t>p3126</t>
   </si>
+  <si>
+    <t>p3146</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -274,34 +290,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,14 +306,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,6 +345,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,7 +410,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,49 +458,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,121 +596,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,21 +649,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,6 +681,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,148 +754,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,52 +918,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1255,10 +1271,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2248,6 +2264,12 @@
       </c>
       <c r="H20" t="s">
         <v>78</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2377,7 +2399,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2394,7 +2416,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -277,7 +264,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -290,6 +277,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,6 +321,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,21 +368,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,28 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,13 +445,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,24 +511,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,18 +559,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,36 +571,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,24 +595,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,12 +614,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,6 +636,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,21 +683,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,148 +741,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,52 +905,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1271,10 +1258,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2270,6 +2257,12 @@
       </c>
       <c r="J20" t="s">
         <v>79</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>3166</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2399,7 +2392,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2416,7 +2409,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="81">
   <si>
     <t>整体计划</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>p3146</t>
+  </si>
+  <si>
+    <t>p3196</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1261,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2263,6 +2266,12 @@
       </c>
       <c r="L20">
         <v>3166</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
   <si>
     <t>整体计划</t>
   </si>
@@ -252,6 +252,9 @@
     <t>p3052</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成206页</t>
+  </si>
+  <si>
     <t>p3091</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
   </si>
   <si>
     <t>p3196</t>
+  </si>
+  <si>
+    <t>p3258</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1267,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2233,7 +2239,9 @@
       <c r="R19" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2247,19 +2255,19 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K20">
         <v>20</v>
@@ -2271,7 +2279,19 @@
         <v>30</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20">
+        <v>3216</v>
+      </c>
+      <c r="Q20">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>82</v>
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2383,8 +2403,8 @@
     <mergeCell ref="S13:V14"/>
     <mergeCell ref="S15:V16"/>
     <mergeCell ref="S17:V18"/>
+    <mergeCell ref="S21:V22"/>
     <mergeCell ref="S19:V20"/>
-    <mergeCell ref="S21:V22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
   <si>
     <t>整体计划</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>p3258</t>
+  </si>
+  <si>
+    <t>p3294</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1270,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2355,6 +2358,12 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>83</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="85">
   <si>
     <t>整体计划</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>p3294</t>
+  </si>
+  <si>
+    <t>p3327</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1273,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2363,6 +2366,12 @@
       </c>
       <c r="F22" t="s">
         <v>83</v>
+      </c>
+      <c r="G22">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
   <si>
     <t>整体计划</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>p3327</t>
+  </si>
+  <si>
+    <t>p3363</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1276,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2372,6 +2375,12 @@
       </c>
       <c r="H22" t="s">
         <v>84</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="87">
   <si>
     <t>整体计划</t>
   </si>
@@ -278,11 +291,14 @@
   <si>
     <t>p3363</t>
   </si>
+  <si>
+    <t>p3402</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -295,34 +311,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,14 +327,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,6 +366,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,7 +431,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,49 +479,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,121 +617,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,21 +670,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,6 +702,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,148 +775,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -923,52 +939,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1275,11 +1291,11 @@
   <sheetPr/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2381,6 +2397,12 @@
       </c>
       <c r="J22" t="s">
         <v>85</v>
+      </c>
+      <c r="K22">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>86</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2448,7 +2470,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2465,7 +2487,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
   <si>
     <t>整体计划</t>
   </si>
@@ -294,11 +281,17 @@
   <si>
     <t>p3402</t>
   </si>
+  <si>
+    <t>p3420</t>
+  </si>
+  <si>
+    <t>p3474</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -311,6 +304,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,6 +348,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,21 +395,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,28 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,13 +472,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,24 +538,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -539,18 +586,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -563,36 +598,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,24 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -642,12 +641,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,6 +663,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,21 +710,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,148 +768,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,52 +932,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1292,10 +1285,10 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2403,6 +2396,18 @@
       </c>
       <c r="L22" t="s">
         <v>86</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="N22" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22">
+        <v>54</v>
+      </c>
+      <c r="P22" t="s">
+        <v>88</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -2470,7 +2475,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2487,7 +2492,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>整体计划</t>
   </si>
@@ -270,6 +270,12 @@
     <t>p3258</t>
   </si>
   <si>
+    <t>9.2-9.8</t>
+  </si>
+  <si>
+    <t>本周预计完成200页，总共完成233页</t>
+  </si>
+  <si>
     <t>p3294</t>
   </si>
   <si>
@@ -286,6 +292,9 @@
   </si>
   <si>
     <t>p3474</t>
+  </si>
+  <si>
+    <t>p3491</t>
   </si>
 </sst>
 </file>
@@ -913,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,6 +934,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1282,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1445,7 +1457,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2320,7 +2332,9 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E21" t="s">
         <v>15</v>
       </c>
@@ -2363,7 +2377,9 @@
       <c r="R21" t="s">
         <v>16</v>
       </c>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2377,45 +2393,237 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22">
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I22">
         <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22">
         <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M22">
         <v>18</v>
       </c>
       <c r="N22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O22">
         <v>54</v>
       </c>
       <c r="P22" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="Q22">
+        <v>17</v>
+      </c>
+      <c r="R22" t="s">
+        <v>91</v>
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="49">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2446,8 +2654,10 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A3:C22"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
     <mergeCell ref="S5:V6"/>
@@ -2457,8 +2667,12 @@
     <mergeCell ref="S13:V14"/>
     <mergeCell ref="S15:V16"/>
     <mergeCell ref="S17:V18"/>
+    <mergeCell ref="S19:V20"/>
     <mergeCell ref="S21:V22"/>
-    <mergeCell ref="S19:V20"/>
+    <mergeCell ref="S23:V24"/>
+    <mergeCell ref="A3:C28"/>
+    <mergeCell ref="S25:V26"/>
+    <mergeCell ref="S27:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="93">
   <si>
     <t>整体计划</t>
   </si>
@@ -296,11 +309,14 @@
   <si>
     <t>p3491</t>
   </si>
+  <si>
+    <t>p3529</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -313,34 +329,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,14 +345,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,6 +384,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,7 +449,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,49 +497,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,121 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,21 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,6 +720,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,152 +793,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,9 +950,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -944,52 +957,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1297,10 +1310,10 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -1457,7 +1470,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2440,7 +2453,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="1"/>
       <c r="E23" t="s">
         <v>15</v>
       </c>
@@ -2483,26 +2496,32 @@
       <c r="R23" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="D24" s="1"/>
+      <c r="E24">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="1"/>
       <c r="E25" t="s">
         <v>15</v>
       </c>
@@ -2545,26 +2564,26 @@
       <c r="R25" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="D26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="1"/>
       <c r="E27" t="s">
         <v>15</v>
       </c>
@@ -2607,20 +2626,20 @@
       <c r="R27" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="D28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -2689,7 +2708,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2706,7 +2725,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
   <si>
     <t>整体计划</t>
   </si>
@@ -312,11 +299,14 @@
   <si>
     <t>p3529</t>
   </si>
+  <si>
+    <t>p3568</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -329,6 +319,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,6 +363,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,21 +410,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,28 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,13 +487,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,24 +553,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -557,18 +601,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -581,36 +613,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -629,24 +637,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -660,12 +656,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,6 +678,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -720,21 +725,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,148 +783,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,52 +947,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1310,10 +1300,10 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2511,6 +2501,12 @@
       </c>
       <c r="F24" t="s">
         <v>92</v>
+      </c>
+      <c r="G24">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2708,7 +2704,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2725,7 +2721,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="95">
   <si>
     <t>整体计划</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>p3568</t>
+  </si>
+  <si>
+    <t>p3601</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1303,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2507,6 +2510,12 @@
       </c>
       <c r="H24" t="s">
         <v>93</v>
+      </c>
+      <c r="I24">
+        <v>33</v>
+      </c>
+      <c r="J24" t="s">
+        <v>94</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
   <si>
     <t>整体计划</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>p3601</t>
+  </si>
+  <si>
+    <t>p3657</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1306,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2516,6 +2519,12 @@
       </c>
       <c r="J24" t="s">
         <v>94</v>
+      </c>
+      <c r="K24">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>95</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="19200" windowHeight="7000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="98">
   <si>
     <t>整体计划</t>
   </si>
@@ -308,11 +321,17 @@
   <si>
     <t>p3657</t>
   </si>
+  <si>
+    <t>临时工作任务干扰</t>
+  </si>
+  <si>
+    <t>p3701</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -325,34 +344,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,14 +360,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +399,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,7 +464,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,49 +512,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,121 +650,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,21 +703,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,6 +735,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,148 +808,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -953,52 +972,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1306,10 +1325,10 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2525,6 +2544,18 @@
       </c>
       <c r="L24" t="s">
         <v>95</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s">
+        <v>97</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2722,7 +2753,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2739,7 +2770,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000"/>
+    <workbookView windowWidth="21000" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="100">
   <si>
     <t>整体计划</t>
   </si>
@@ -310,6 +310,9 @@
     <t>p3491</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成210页</t>
+  </si>
+  <si>
     <t>p3529</t>
   </si>
   <si>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>p3701</t>
+  </si>
+  <si>
+    <t>p3731</t>
   </si>
 </sst>
 </file>
@@ -1324,11 +1330,11 @@
   <sheetPr/>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2511,7 +2517,9 @@
       <c r="R23" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2525,37 +2533,43 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24">
         <v>39</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24">
         <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24">
         <v>56</v>
       </c>
       <c r="L24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O24">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>98</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -2619,6 +2633,18 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2733,10 +2759,10 @@
     <mergeCell ref="S17:V18"/>
     <mergeCell ref="S19:V20"/>
     <mergeCell ref="S21:V22"/>
-    <mergeCell ref="S23:V24"/>
     <mergeCell ref="A3:C28"/>
     <mergeCell ref="S25:V26"/>
     <mergeCell ref="S27:V28"/>
+    <mergeCell ref="S23:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2753,7 +2779,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2770,7 +2796,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,32 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11055"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="101">
   <si>
     <t>整体计划</t>
   </si>
@@ -333,11 +320,14 @@
   <si>
     <t>p3731</t>
   </si>
+  <si>
+    <t>p3773</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -350,6 +340,34 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,6 +384,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,21 +431,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,28 +481,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +508,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,24 +574,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -578,18 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -602,36 +634,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,24 +658,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,12 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +699,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -741,21 +746,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,148 +804,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,52 +968,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1330,11 +1320,11 @@
   <sheetPr/>
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -2644,6 +2634,12 @@
       </c>
       <c r="H26" t="s">
         <v>99</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2779,7 +2775,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2796,7 +2792,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
   <si>
     <t>整体计划</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>p3773</t>
+  </si>
+  <si>
+    <t>p3837</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1324,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2640,6 +2643,12 @@
       </c>
       <c r="J26" t="s">
         <v>100</v>
+      </c>
+      <c r="K26">
+        <v>64</v>
+      </c>
+      <c r="L26" t="s">
+        <v>101</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="105">
   <si>
     <t>整体计划</t>
   </si>
@@ -318,6 +318,9 @@
     <t>p3701</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成136页</t>
+  </si>
+  <si>
     <t>p3731</t>
   </si>
   <si>
@@ -325,6 +328,12 @@
   </si>
   <si>
     <t>p3837</t>
+  </si>
+  <si>
+    <t>去青岛玩了</t>
+  </si>
+  <si>
+    <t>p3909</t>
   </si>
 </sst>
 </file>
@@ -952,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +976,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1324,7 +1336,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2616,7 +2628,9 @@
       <c r="R25" t="s">
         <v>16</v>
       </c>
-      <c r="S25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2636,20 +2650,28 @@
         <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>42</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K26">
         <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2712,13 +2734,19 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1"/>
+      <c r="E28">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2738,6 +2766,7 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M26:R26"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -2765,9 +2794,9 @@
     <mergeCell ref="S19:V20"/>
     <mergeCell ref="S21:V22"/>
     <mergeCell ref="A3:C28"/>
-    <mergeCell ref="S25:V26"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="S23:V24"/>
+    <mergeCell ref="S25:V26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="106">
   <si>
     <t>整体计划</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>p3909</t>
+  </si>
+  <si>
+    <t>p3932</t>
   </si>
 </sst>
 </file>
@@ -961,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,9 +979,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2664,14 +2664,14 @@
       <c r="L26" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2739,6 +2739,12 @@
       </c>
       <c r="F28" t="s">
         <v>104</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="107">
   <si>
     <t>整体计划</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>p3932</t>
+  </si>
+  <si>
+    <t>p3980</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1339,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2745,6 +2748,12 @@
       </c>
       <c r="H28" t="s">
         <v>105</v>
+      </c>
+      <c r="I28">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>106</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>整体计划</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>p3980</t>
+  </si>
+  <si>
+    <t>p4036</t>
   </si>
 </sst>
 </file>
@@ -2755,6 +2758,12 @@
       <c r="J28" t="s">
         <v>106</v>
       </c>
+      <c r="K28">
+        <v>56</v>
+      </c>
+      <c r="L28" t="s">
+        <v>107</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
   <si>
     <t>整体计划</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>p4036</t>
+  </si>
+  <si>
+    <t>p4086</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1345,7 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2763,6 +2766,12 @@
       </c>
       <c r="L28" t="s">
         <v>107</v>
+      </c>
+      <c r="M28">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>108</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="110">
   <si>
     <t>整体计划</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>p4086</t>
+  </si>
+  <si>
+    <t>p4122</t>
   </si>
 </sst>
 </file>
@@ -973,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +988,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1342,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1505,7 +1511,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2773,13 +2779,81 @@
       <c r="N28" t="s">
         <v>108</v>
       </c>
+      <c r="O28">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>109</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2814,6 +2888,7 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
@@ -2826,10 +2901,11 @@
     <mergeCell ref="S17:V18"/>
     <mergeCell ref="S19:V20"/>
     <mergeCell ref="S21:V22"/>
-    <mergeCell ref="A3:C28"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="S23:V24"/>
     <mergeCell ref="S25:V26"/>
+    <mergeCell ref="A3:C30"/>
+    <mergeCell ref="S29:V30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="22368" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t>整体计划</t>
   </si>
@@ -333,6 +333,9 @@
     <t>去青岛玩了</t>
   </si>
   <si>
+    <t>本周预计完成200页，总共完成332页</t>
+  </si>
+  <si>
     <t>p3909</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
   </si>
   <si>
     <t>p4122</t>
+  </si>
+  <si>
+    <t>p4169</t>
   </si>
 </sst>
 </file>
@@ -976,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,9 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1351,7 +1354,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="S29" sqref="S29:V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1511,7 +1514,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2739,7 +2742,9 @@
       <c r="R27" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="1"/>
+      <c r="S27" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2753,37 +2758,43 @@
         <v>72</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28">
         <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I28">
         <v>48</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K28">
         <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28">
         <v>50</v>
       </c>
       <c r="N28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O28">
         <v>36</v>
       </c>
       <c r="P28" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Q28">
+        <v>47</v>
+      </c>
+      <c r="R28" t="s">
+        <v>111</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -2794,7 +2805,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="1"/>
       <c r="E29" t="s">
         <v>15</v>
       </c>
@@ -2837,20 +2848,20 @@
       <c r="R29" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="D30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2901,11 +2912,11 @@
     <mergeCell ref="S17:V18"/>
     <mergeCell ref="S19:V20"/>
     <mergeCell ref="S21:V22"/>
-    <mergeCell ref="S27:V28"/>
     <mergeCell ref="S23:V24"/>
     <mergeCell ref="S25:V26"/>
     <mergeCell ref="A3:C30"/>
     <mergeCell ref="S29:V30"/>
+    <mergeCell ref="S27:V28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8700"/>
+    <workbookView windowWidth="22368" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
   <si>
     <t>整体计划</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>p4169</t>
+  </si>
+  <si>
+    <t>p4228</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1357,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29:V30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2858,6 +2861,12 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
+      <c r="E30">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="115">
   <si>
     <t>整体计划</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>p4228</t>
+  </si>
+  <si>
+    <t>国庆假期</t>
+  </si>
+  <si>
+    <t>p5293，快速看完内容梗概</t>
   </si>
 </sst>
 </file>
@@ -985,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,6 +1003,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1354,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1517,7 +1526,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2867,13 +2876,99 @@
       <c r="F30" t="s">
         <v>112</v>
       </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>113</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>113</v>
+      </c>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32">
+        <v>1124</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -2909,6 +3004,7 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="S3:V4"/>
@@ -2923,9 +3019,10 @@
     <mergeCell ref="S21:V22"/>
     <mergeCell ref="S23:V24"/>
     <mergeCell ref="S25:V26"/>
-    <mergeCell ref="A3:C30"/>
     <mergeCell ref="S29:V30"/>
     <mergeCell ref="S27:V28"/>
+    <mergeCell ref="A3:C32"/>
+    <mergeCell ref="S31:V32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/doc/文档学习计划以及进度.xlsx
+++ b/doc/文档学习计划以及进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="116">
   <si>
     <t>整体计划</t>
   </si>
@@ -363,7 +363,10 @@
     <t>国庆假期</t>
   </si>
   <si>
-    <t>p5293，快速看完内容梗概</t>
+    <t>初步完成VulkanSpecific.pdf  1.3版本的阅读学习</t>
+  </si>
+  <si>
+    <t>p5353，快速看完内容梗概</t>
   </si>
 </sst>
 </file>
@@ -376,10 +379,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -849,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,34 +871,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,98 +907,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,11 +1014,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1366,7 +1379,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1526,7 +1539,7 @@
       <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4">
@@ -2921,7 +2934,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="1"/>
       <c r="E31" t="s">
         <v>15</v>
       </c>
@@ -2934,22 +2947,28 @@
       <c r="H31" t="s">
         <v>16</v>
       </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>16</v>
-      </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="I31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="1"/>
       <c r="E32">
         <v>0</v>
       </c>
@@ -2957,15 +2976,25 @@
         <v>113</v>
       </c>
       <c r="G32">
-        <v>1124</v>
+        <v>1184</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
-      </c>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -3022,7 +3051,7 @@
     <mergeCell ref="S29:V30"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="A3:C32"/>
-    <mergeCell ref="S31:V32"/>
+    <mergeCell ref="I31:V32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
